--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCoreAsync/Output/Sample-04/Sample-04.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCoreAsync/Output/Sample-04/Sample-04.xlsx
@@ -61,7 +61,7 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -71,8 +71,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="zvfigv4k" xfId="1"/>
-    <cellStyle name="zvfigv4k_Alternate" xfId="2"/>
+    <cellStyle name="dzhhxr1w" xfId="1"/>
+    <cellStyle name="dzhhxr1w_Alternate" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -82,7 +82,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="1" view="pageLayout"/>
+    <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -92,13 +92,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.984250" right="0.984250" top="0.984250" bottom="0.984250" header="0.315" footer="0.315"/>
-  <pageSetup paperSize="8" orientation="landscape"/>
-  <headerFooter differentOddEven="1">
-    <oddHeader>&amp;LSample header&amp;CiTin&amp;RHeader text</oddHeader>
-    <oddFooter>&amp;LSample footer&amp;CiTin&amp;R&amp;P / &amp;N</oddFooter>
-    <evenHeader>&amp;LSample header&amp;CiTin&amp;RHeader text</evenHeader>
-    <evenFooter>&amp;LSample footer&amp;CiTin&amp;R&amp;P / &amp;N</evenFooter>
-  </headerFooter>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCoreAsync/Output/Sample-04/Sample-04.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCoreAsync/Output/Sample-04/Sample-04.xlsx
@@ -53,26 +53,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="2" applyProtection="1"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="dzhhxr1w" xfId="1"/>
-    <cellStyle name="dzhhxr1w_Alternate" xfId="2"/>
+    <cellStyle name="s4dcwohc" xfId="1"/>
+    <cellStyle name="s4dcwohc_Alternate" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -87,7 +82,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>

--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCoreAsync/Output/Sample-04/Sample-04.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCoreAsync/Output/Sample-04/Sample-04.xlsx
@@ -66,8 +66,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="s4dcwohc" xfId="1"/>
-    <cellStyle name="s4dcwohc_Alternate" xfId="2"/>
+    <cellStyle name="l1q0i1ce" xfId="1"/>
+    <cellStyle name="l1q0i1ce_Alternate" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
